--- a/apps/load_data/2021/02/PLMOVMAE.xlsx
+++ b/apps/load_data/2021/02/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2021\HHY0221\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021\HHY0221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B61BE94D-3CDE-4A31-9CE4-2221ED85EC90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D8A4D-9C7F-46DB-9033-6B26E4250927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$266</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$266</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11531" uniqueCount="3217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11511" uniqueCount="3214">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6874,9 +6875,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8053,9 +8051,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8333,9 +8328,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9679,7 +9671,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10519,10 +10511,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD234" sqref="AC172:AD234"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42826,12 +42820,7 @@
       <c r="AB172" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -42884,16 +42873,16 @@
         <v>21</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH172" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="BI172" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="BI172" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="BM172" s="1" t="s">
         <v>117</v>
@@ -42908,13 +42897,13 @@
         <v>165</v>
       </c>
       <c r="BR172" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BS172" s="3">
         <v>36225</v>
       </c>
       <c r="BT172" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BU172" s="1" t="s">
         <v>121</v>
@@ -42935,19 +42924,19 @@
         <v>101</v>
       </c>
       <c r="CC172" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="CD172" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="CD172" s="1" t="s">
+      <c r="CE172" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="CE172" s="1" t="s">
+      <c r="CG172" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="CG172" s="1" t="s">
+      <c r="CH172" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2293</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>129</v>
@@ -42985,13 +42974,13 @@
         <v>96</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2294</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2295</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2296</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>100</v>
@@ -43026,12 +43015,7 @@
       <c r="AB173" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43078,7 +43062,7 @@
         <v>101</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BB173" s="1">
         <v>2</v>
@@ -43087,13 +43071,13 @@
         <v>21</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH173" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BI173" s="1" t="s">
         <v>1671</v>
@@ -43108,13 +43092,13 @@
         <v>102</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="BS173" s="3">
         <v>36949</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>121</v>
@@ -43138,16 +43122,16 @@
         <v>101</v>
       </c>
       <c r="CC173" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="CD173" s="1" t="s">
         <v>1993</v>
       </c>
       <c r="CE173" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="CG173" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="CG173" s="1" t="s">
-        <v>2304</v>
       </c>
       <c r="CH173" s="1" t="s">
         <v>1676</v>
@@ -43188,13 +43172,13 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2305</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2306</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2307</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
@@ -43229,12 +43213,7 @@
       <c r="AB174" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43281,7 +43260,7 @@
         <v>101</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BB174" s="1">
         <v>2</v>
@@ -43290,13 +43269,13 @@
         <v>21</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>1682</v>
@@ -43314,13 +43293,13 @@
         <v>165</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="BS174" s="3">
         <v>36825</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>121</v>
@@ -43344,16 +43323,16 @@
         <v>101</v>
       </c>
       <c r="CC174" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="CD174" s="1" t="s">
         <v>2313</v>
       </c>
-      <c r="CD174" s="1" t="s">
+      <c r="CE174" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="CE174" s="1" t="s">
+      <c r="CG174" s="1" t="s">
         <v>2315</v>
-      </c>
-      <c r="CG174" s="1" t="s">
-        <v>2316</v>
       </c>
       <c r="CH174" s="1" t="s">
         <v>1689</v>
@@ -43394,13 +43373,13 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2317</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2318</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2319</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
@@ -43432,12 +43411,7 @@
       <c r="AA175" s="1">
         <v>0</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -43487,7 +43461,7 @@
         <v>101</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BB175" s="1">
         <v>2</v>
@@ -43496,13 +43470,13 @@
         <v>21</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>117</v>
@@ -43511,7 +43485,7 @@
         <v>106</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>121</v>
@@ -43529,16 +43503,16 @@
         <v>101</v>
       </c>
       <c r="CC175" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="CD175" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="CG175" s="1" t="s">
         <v>2325</v>
-      </c>
-      <c r="CG175" s="1" t="s">
-        <v>2326</v>
       </c>
       <c r="CH175" s="1" t="s">
         <v>129</v>
@@ -43579,13 +43553,13 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
@@ -43620,12 +43594,7 @@
       <c r="AB176" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -43675,7 +43644,7 @@
         <v>101</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BB176" s="1">
         <v>2</v>
@@ -43684,13 +43653,13 @@
         <v>21</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>1839</v>
@@ -43702,7 +43671,7 @@
         <v>106</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>121</v>
@@ -43723,13 +43692,13 @@
         <v>692</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CG176" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2336</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>1843</v>
@@ -43770,13 +43739,13 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2337</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2338</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2339</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
@@ -43808,12 +43777,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -43863,7 +43827,7 @@
         <v>101</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BB177" s="1">
         <v>2</v>
@@ -43872,13 +43836,13 @@
         <v>21</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BM177" s="1" t="s">
         <v>117</v>
@@ -43887,7 +43851,7 @@
         <v>106</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>121</v>
@@ -43905,16 +43869,16 @@
         <v>101</v>
       </c>
       <c r="CC177" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="CD177" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="CD177" s="1" t="s">
-        <v>2344</v>
-      </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>129</v>
@@ -43955,13 +43919,13 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2347</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2348</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2349</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
@@ -43999,12 +43963,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -44051,7 +44010,7 @@
         <v>101</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BB178" s="1">
         <v>2</v>
@@ -44060,16 +44019,16 @@
         <v>21</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH178" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="BI178" s="1" t="s">
         <v>2352</v>
-      </c>
-      <c r="BI178" s="1" t="s">
-        <v>2353</v>
       </c>
       <c r="BM178" s="1" t="s">
         <v>117</v>
@@ -44081,13 +44040,13 @@
         <v>118</v>
       </c>
       <c r="BR178" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BS178" s="3">
         <v>35243</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>121</v>
@@ -44105,19 +44064,19 @@
         <v>101</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="CD178" s="1" t="s">
         <v>2356</v>
       </c>
-      <c r="CD178" s="1" t="s">
+      <c r="CE178" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="CG178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2360</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>129</v>
@@ -44155,13 +44114,13 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
@@ -44193,12 +44152,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -44248,7 +44202,7 @@
         <v>101</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BB179" s="1">
         <v>2</v>
@@ -44257,13 +44211,13 @@
         <v>21</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>952</v>
@@ -44275,7 +44229,7 @@
         <v>106</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>121</v>
@@ -44293,16 +44247,16 @@
         <v>101</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2369</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2370</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2371</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>957</v>
@@ -44343,13 +44297,13 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2374</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
@@ -44381,12 +44335,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>107</v>
       </c>
@@ -44436,7 +44385,7 @@
         <v>101</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BB180" s="1">
         <v>2</v>
@@ -44445,13 +44394,13 @@
         <v>21</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>2243</v>
@@ -44466,7 +44415,7 @@
         <v>165</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>121</v>
@@ -44484,16 +44433,16 @@
         <v>101</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2379</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>2248</v>
@@ -44510,13 +44459,13 @@
         <v>88</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>101</v>
@@ -44528,19 +44477,19 @@
         <v>94</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2387</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
@@ -44575,12 +44524,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>107</v>
       </c>
@@ -44630,7 +44574,7 @@
         <v>101</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BB181" s="1">
         <v>2</v>
@@ -44639,13 +44583,13 @@
         <v>21</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BI181" s="1" t="s">
         <v>383</v>
@@ -44657,7 +44601,7 @@
         <v>106</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>121</v>
@@ -44678,16 +44622,16 @@
         <v>101</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2395</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2396</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2397</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>391</v>
@@ -44728,13 +44672,13 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2398</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2399</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2400</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
@@ -44766,12 +44710,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>107</v>
       </c>
@@ -44818,7 +44757,7 @@
         <v>101</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BB182" s="1">
         <v>2</v>
@@ -44827,16 +44766,16 @@
         <v>21</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2404</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>117</v>
@@ -44848,13 +44787,13 @@
         <v>118</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BS182" s="3">
         <v>35950</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>121</v>
@@ -44872,19 +44811,19 @@
         <v>101</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>1799</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="CG182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>129</v>
@@ -44922,13 +44861,13 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
@@ -45012,7 +44951,7 @@
         <v>101</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BB183" s="1">
         <v>2</v>
@@ -45021,13 +44960,13 @@
         <v>21</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>1839</v>
@@ -45042,7 +44981,7 @@
         <v>165</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>121</v>
@@ -45060,16 +44999,16 @@
         <v>101</v>
       </c>
       <c r="CC183" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="CD183" s="1" t="s">
         <v>425</v>
       </c>
       <c r="CE183" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="CG183" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>1843</v>
@@ -45110,13 +45049,13 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
@@ -45194,7 +45133,7 @@
         <v>101</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BB184" s="1">
         <v>2</v>
@@ -45203,13 +45142,13 @@
         <v>21</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BI184" s="1" t="s">
         <v>1849</v>
@@ -45224,13 +45163,13 @@
         <v>231</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BS184" s="3">
         <v>36099</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>121</v>
@@ -45248,16 +45187,16 @@
         <v>101</v>
       </c>
       <c r="CC184" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="CD184" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="CD184" s="1" t="s">
+      <c r="CE184" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CG184" s="1" t="s">
         <v>2431</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2432</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>1855</v>
@@ -45298,13 +45237,13 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2435</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
@@ -45382,7 +45321,7 @@
         <v>101</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BB185" s="1">
         <v>2</v>
@@ -45391,16 +45330,16 @@
         <v>21</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH185" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="BI185" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="BI185" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="BM185" s="1" t="s">
         <v>117</v>
@@ -45412,13 +45351,13 @@
         <v>102</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BS185" s="3">
         <v>37735</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>121</v>
@@ -45436,19 +45375,19 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="CD185" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="CD185" s="1" t="s">
+      <c r="CE185" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CG185" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="CG185" s="1" t="s">
+      <c r="CH185" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2446</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>129</v>
@@ -45486,13 +45425,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -45573,7 +45512,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BB186" s="1">
         <v>2</v>
@@ -45582,13 +45521,13 @@
         <v>21</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BM186" s="1" t="s">
         <v>117</v>
@@ -45597,7 +45536,7 @@
         <v>106</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>121</v>
@@ -45615,16 +45554,16 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="CD186" s="1" t="s">
         <v>882</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="CG186" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>129</v>
@@ -45647,7 +45586,7 @@
         <v>90</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>101</v>
@@ -45665,13 +45604,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2458</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2459</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2460</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -45710,7 +45649,7 @@
         <v>107</v>
       </c>
       <c r="AG187" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="AH187" s="1" t="s">
         <v>1914</v>
@@ -45755,7 +45694,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BB187" s="1">
         <v>2</v>
@@ -45764,13 +45703,13 @@
         <v>21</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>117</v>
@@ -45779,7 +45718,7 @@
         <v>106</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>121</v>
@@ -45788,7 +45727,7 @@
         <v>0</v>
       </c>
       <c r="BZ187" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="CA187" s="1" t="s">
         <v>123</v>
@@ -45800,13 +45739,13 @@
         <v>1590</v>
       </c>
       <c r="CD187" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="CE187" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>129</v>
@@ -45847,13 +45786,13 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2472</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -45934,7 +45873,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BB188" s="1">
         <v>2</v>
@@ -45943,16 +45882,16 @@
         <v>21</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH188" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="BI188" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="BI188" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>117</v>
@@ -45964,13 +45903,13 @@
         <v>102</v>
       </c>
       <c r="BR188" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BS188" s="3">
         <v>43602</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>121</v>
@@ -45994,13 +45933,13 @@
         <v>969</v>
       </c>
       <c r="CE188" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="CG188" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="CG188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2481</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>129</v>
@@ -46038,13 +45977,13 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -46125,7 +46064,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BB189" s="1">
         <v>2</v>
@@ -46134,13 +46073,13 @@
         <v>21</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>117</v>
@@ -46149,7 +46088,7 @@
         <v>106</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>121</v>
@@ -46167,16 +46106,16 @@
         <v>101</v>
       </c>
       <c r="CC189" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="CD189" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="CD189" s="1" t="s">
+      <c r="CE189" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2492</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>129</v>
@@ -46217,13 +46156,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -46265,7 +46204,7 @@
         <v>42247</v>
       </c>
       <c r="AD190" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="AF190" s="1" t="s">
         <v>107</v>
@@ -46319,16 +46258,16 @@
         <v>21</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>117</v>
@@ -46340,13 +46279,13 @@
         <v>231</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BS190" s="3">
         <v>36580</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>121</v>
@@ -46367,7 +46306,7 @@
         <v>101</v>
       </c>
       <c r="CC190" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="CD190" s="1" t="s">
         <v>296</v>
@@ -46376,10 +46315,10 @@
         <v>1619</v>
       </c>
       <c r="CG190" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2503</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2504</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>129</v>
@@ -46417,13 +46356,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2506</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2507</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -46507,13 +46446,13 @@
         <v>21</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>1839</v>
@@ -46528,13 +46467,13 @@
         <v>118</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BS191" s="3">
         <v>37747</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>121</v>
@@ -46558,10 +46497,10 @@
         <v>680</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="CG191" s="1" t="s">
         <v>2512</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2513</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>1843</v>
@@ -46602,13 +46541,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2515</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2516</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -46695,13 +46634,13 @@
         <v>21</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>117</v>
@@ -46710,7 +46649,7 @@
         <v>106</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>121</v>
@@ -46728,16 +46667,16 @@
         <v>101</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>129</v>
@@ -46778,13 +46717,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -46871,16 +46810,16 @@
         <v>21</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>117</v>
@@ -46889,7 +46828,7 @@
         <v>165</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>121</v>
@@ -46907,19 +46846,19 @@
         <v>101</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2531</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="CG193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="CH193" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="CI193" s="1" t="s">
         <v>129</v>
@@ -46957,13 +46896,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -47047,16 +46986,16 @@
         <v>21</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2540</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2541</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>117</v>
@@ -47068,13 +47007,13 @@
         <v>102</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BS194" s="3">
         <v>37334</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>121</v>
@@ -47095,16 +47034,16 @@
         <v>524</v>
       </c>
       <c r="CD194" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="CE194" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>129</v>
@@ -47142,13 +47081,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -47232,16 +47171,16 @@
         <v>21</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2552</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2553</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>117</v>
@@ -47253,13 +47192,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BS195" s="3">
         <v>37904</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>121</v>
@@ -47280,16 +47219,16 @@
         <v>969</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>129</v>
@@ -47309,7 +47248,7 @@
         <v>90</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>101</v>
@@ -47327,13 +47266,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -47417,13 +47356,13 @@
         <v>21</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>117</v>
@@ -47435,13 +47374,13 @@
         <v>118</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BS196" s="3">
         <v>36111</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>121</v>
@@ -47450,7 +47389,7 @@
         <v>0</v>
       </c>
       <c r="BZ196" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="CA196" s="1" t="s">
         <v>123</v>
@@ -47459,16 +47398,16 @@
         <v>101</v>
       </c>
       <c r="CC196" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="CD196" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="CE196" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="CG196" s="1" t="s">
         <v>2568</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2569</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>129</v>
@@ -47509,13 +47448,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2572</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -47599,13 +47538,13 @@
         <v>21</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>1882</v>
@@ -47620,13 +47559,13 @@
         <v>118</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BS197" s="3">
         <v>37785</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>121</v>
@@ -47644,16 +47583,16 @@
         <v>101</v>
       </c>
       <c r="CC197" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="CD197" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="CD197" s="1" t="s">
+      <c r="CE197" s="1" t="s">
         <v>2578</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2579</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2580</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>1889</v>
@@ -47670,10 +47609,10 @@
         <v>88</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>152</v>
@@ -47688,16 +47627,16 @@
         <v>94</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2582</v>
-      </c>
-      <c r="L198" s="1" t="s">
-        <v>2583</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -47775,7 +47714,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>117</v>
@@ -47790,7 +47729,7 @@
         <v>0</v>
       </c>
       <c r="BZ198" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="CA198" s="1" t="s">
         <v>123</v>
@@ -47799,7 +47738,7 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CG198" s="1" t="s">
         <v>129</v>
@@ -47843,13 +47782,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2587</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2588</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -47930,7 +47869,7 @@
         <v>101</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BB199" s="1">
         <v>2</v>
@@ -47939,13 +47878,13 @@
         <v>21</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>117</v>
@@ -47954,7 +47893,7 @@
         <v>106</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>121</v>
@@ -47972,16 +47911,16 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2595</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>129</v>
@@ -48022,13 +47961,13 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -48109,7 +48048,7 @@
         <v>101</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BB200" s="1">
         <v>2</v>
@@ -48118,13 +48057,13 @@
         <v>21</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>1839</v>
@@ -48136,7 +48075,7 @@
         <v>106</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>121</v>
@@ -48154,16 +48093,16 @@
         <v>101</v>
       </c>
       <c r="CC200" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="CD200" s="1" t="s">
         <v>1124</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="CG200" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>1843</v>
@@ -48204,13 +48143,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -48291,7 +48230,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BB201" s="1">
         <v>2</v>
@@ -48300,7 +48239,7 @@
         <v>21</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>114</v>
@@ -48315,7 +48254,7 @@
         <v>106</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>121</v>
@@ -48336,10 +48275,10 @@
         <v>1124</v>
       </c>
       <c r="CD201" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="CE201" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="CE201" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="CG201" s="1" t="s">
         <v>1044</v>
@@ -48383,13 +48322,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -48470,7 +48409,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BB202" s="1">
         <v>2</v>
@@ -48479,13 +48418,13 @@
         <v>21</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1839</v>
@@ -48503,13 +48442,13 @@
         <v>165</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BS202" s="3">
         <v>37513</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>121</v>
@@ -48527,16 +48466,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2623</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2624</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1843</v>
@@ -48577,13 +48516,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2626</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -48667,16 +48606,16 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH203" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="BI203" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="BI203" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>117</v>
@@ -48688,13 +48627,13 @@
         <v>102</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BS203" s="3">
         <v>41024</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>121</v>
@@ -48712,19 +48651,19 @@
         <v>101</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2633</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="CG203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2636</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2637</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>129</v>
@@ -48762,10 +48701,10 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -48795,7 +48734,7 @@
         <v>107</v>
       </c>
       <c r="AG204" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="AH204" s="1" t="s">
         <v>1914</v>
@@ -48840,7 +48779,7 @@
         <v>101</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BB204" s="1">
         <v>2</v>
@@ -48849,7 +48788,7 @@
         <v>21</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>117</v>
@@ -48876,7 +48815,7 @@
         <v>101</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="CG204" s="1" t="s">
         <v>1833</v>
@@ -48920,13 +48859,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2642</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2643</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2644</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -49004,7 +48943,7 @@
         <v>101</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="BB205" s="1">
         <v>2</v>
@@ -49013,13 +48952,13 @@
         <v>21</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>1051</v>
@@ -49034,13 +48973,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BS205" s="3">
         <v>37336</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>121</v>
@@ -49058,16 +48997,16 @@
         <v>101</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>1057</v>
@@ -49108,13 +49047,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -49195,7 +49134,7 @@
         <v>101</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BB206" s="1">
         <v>2</v>
@@ -49204,13 +49143,13 @@
         <v>21</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>2243</v>
@@ -49222,7 +49161,7 @@
         <v>106</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>121</v>
@@ -49240,16 +49179,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2663</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2664</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>2248</v>
@@ -49290,13 +49229,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2667</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -49386,7 +49325,7 @@
         <v>21</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>114</v>
@@ -49401,7 +49340,7 @@
         <v>106</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>121</v>
@@ -49419,13 +49358,13 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2671</v>
-      </c>
-      <c r="CE207" s="1" t="s">
-        <v>2672</v>
       </c>
       <c r="CG207" s="1" t="s">
         <v>1033</v>
@@ -49469,13 +49408,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2674</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2675</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -49510,12 +49449,7 @@
       <c r="AA208" s="1">
         <v>0</v>
       </c>
-      <c r="AC208" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>2676</v>
-      </c>
+      <c r="AC208" s="3"/>
       <c r="AF208" s="1" t="s">
         <v>107</v>
       </c>
@@ -49565,7 +49499,7 @@
         <v>101</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="BB208" s="1">
         <v>2</v>
@@ -49574,16 +49508,16 @@
         <v>21</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="BI208" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>117</v>
@@ -49592,7 +49526,7 @@
         <v>106</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>121</v>
@@ -49604,7 +49538,7 @@
         <v>111</v>
       </c>
       <c r="BZ208" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="CA208" s="1" t="s">
         <v>123</v>
@@ -49616,16 +49550,16 @@
         <v>1171</v>
       </c>
       <c r="CD208" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="CE208" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="CG208" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2685</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>129</v>
@@ -49663,10 +49597,10 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -49693,7 +49627,7 @@
         <v>107</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>379</v>
@@ -49747,10 +49681,10 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="CE209" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="210" spans="1:87" x14ac:dyDescent="0.25">
@@ -49761,13 +49695,13 @@
         <v>88</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>2384</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>101</v>
@@ -49779,16 +49713,16 @@
         <v>94</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -49815,7 +49749,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>379</v>
@@ -49860,7 +49794,7 @@
         <v>0</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>123</v>
@@ -49869,10 +49803,10 @@
         <v>101</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="211" spans="1:87" x14ac:dyDescent="0.25">
@@ -49907,10 +49841,10 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -49937,7 +49871,7 @@
         <v>107</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>379</v>
@@ -49991,10 +49925,10 @@
         <v>101</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -50011,7 +49945,7 @@
         <v>130</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>92</v>
@@ -50023,16 +49957,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -50104,7 +50038,7 @@
         <v>0</v>
       </c>
       <c r="BZ212" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="CA212" s="1" t="s">
         <v>123</v>
@@ -50113,10 +50047,10 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -50151,10 +50085,10 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>111</v>
@@ -50235,10 +50169,10 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -50255,7 +50189,7 @@
         <v>130</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -50267,16 +50201,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>111</v>
@@ -50348,7 +50282,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>123</v>
@@ -50357,10 +50291,10 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -50395,10 +50329,10 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>111</v>
@@ -50479,10 +50413,10 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -50517,13 +50451,13 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2710</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
@@ -50555,12 +50489,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2676</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -50613,13 +50542,13 @@
         <v>21</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>383</v>
@@ -50634,13 +50563,13 @@
         <v>102</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="BS216" s="3">
         <v>36306</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>121</v>
@@ -50658,16 +50587,16 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="CD216" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="CE216" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CG216" s="1" t="s">
         <v>2717</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2718</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2719</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>391</v>
@@ -50708,13 +50637,13 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2720</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2721</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2722</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
@@ -50746,12 +50675,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2676</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -50807,13 +50731,13 @@
         <v>21</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>117</v>
@@ -50822,7 +50746,7 @@
         <v>106</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>121</v>
@@ -50840,16 +50764,16 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="CG217" s="1" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>129</v>
@@ -50890,13 +50814,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2729</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2730</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -50931,12 +50855,7 @@
       <c r="AB218" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2676</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -50989,13 +50908,13 @@
         <v>21</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>383</v>
@@ -51010,13 +50929,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="BS218" s="3">
         <v>38234</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>121</v>
@@ -51034,16 +50953,16 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>1019</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="CG218" s="1" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>391</v>
@@ -51084,13 +51003,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2739</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2740</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2741</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -51122,12 +51041,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2676</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -51183,13 +51097,13 @@
         <v>21</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>602</v>
@@ -51201,7 +51115,7 @@
         <v>106</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>121</v>
@@ -51219,16 +51133,16 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="CD219" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="CE219" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2746</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2747</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>609</v>
@@ -51269,13 +51183,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2749</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2750</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2751</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -51307,12 +51221,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2676</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>107</v>
       </c>
@@ -51365,13 +51274,13 @@
         <v>21</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>952</v>
@@ -51386,13 +51295,13 @@
         <v>231</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="BS220" s="3">
         <v>37069</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>121</v>
@@ -51413,13 +51322,13 @@
         <v>769</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="CG220" s="1" t="s">
         <v>2756</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2757</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2758</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>957</v>
@@ -51460,13 +51369,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2759</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2761</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -51498,12 +51407,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2676</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>107</v>
       </c>
@@ -51559,7 +51463,7 @@
         <v>21</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>114</v>
@@ -51577,7 +51481,7 @@
         <v>106</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>121</v>
@@ -51595,13 +51499,13 @@
         <v>101</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="CD221" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2764</v>
-      </c>
-      <c r="CD221" s="1" t="s">
-        <v>2765</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2766</v>
       </c>
       <c r="CG221" s="1" t="s">
         <v>2226</v>
@@ -51645,13 +51549,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2767</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2768</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2769</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -51683,12 +51587,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2770</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>107</v>
       </c>
@@ -51735,7 +51634,7 @@
         <v>101</v>
       </c>
       <c r="AZ222" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="BB222" s="1">
         <v>2</v>
@@ -51744,16 +51643,16 @@
         <v>21</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="BI222" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>117</v>
@@ -51765,13 +51664,13 @@
         <v>231</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="BS222" s="3">
         <v>35125</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>121</v>
@@ -51789,19 +51688,19 @@
         <v>101</v>
       </c>
       <c r="CC222" s="1" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="CD222" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="CG222" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="CH222" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>129</v>
@@ -51839,13 +51738,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -51935,19 +51834,19 @@
         <v>21</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>121</v>
@@ -51965,16 +51864,16 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="CD223" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="CE223" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="CG223" s="1" t="s">
         <v>2787</v>
-      </c>
-      <c r="CD223" s="1" t="s">
-        <v>2788</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2790</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>129</v>
@@ -52015,13 +51914,13 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -52108,13 +52007,13 @@
         <v>21</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>117</v>
@@ -52123,7 +52022,7 @@
         <v>106</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>121</v>
@@ -52144,13 +52043,13 @@
         <v>337</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="CG224" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="CH224" s="1" t="s">
         <v>129</v>
@@ -52167,7 +52066,7 @@
         <v>88</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>484</v>
@@ -52191,13 +52090,13 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52284,13 +52183,13 @@
         <v>21</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="BI225" s="1" t="s">
         <v>198</v>
@@ -52305,13 +52204,13 @@
         <v>231</v>
       </c>
       <c r="BR225" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="BS225" s="3">
         <v>34307</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>121</v>
@@ -52320,7 +52219,7 @@
         <v>0</v>
       </c>
       <c r="BZ225" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="CA225" s="1" t="s">
         <v>123</v>
@@ -52329,16 +52228,16 @@
         <v>101</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>425</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="CG225" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>205</v>
@@ -52382,10 +52281,10 @@
         <v>256</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N226" s="1" t="s">
         <v>258</v>
@@ -52418,7 +52317,7 @@
         <v>42582</v>
       </c>
       <c r="AD226" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="AF226" s="1" t="s">
         <v>107</v>
@@ -52475,13 +52374,13 @@
         <v>0</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="BI226" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>117</v>
@@ -52526,7 +52425,7 @@
         <v>269</v>
       </c>
       <c r="CG226" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>801</v>
@@ -52549,7 +52448,7 @@
         <v>90</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>92</v>
@@ -52561,22 +52460,22 @@
         <v>94</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="Q227" s="3">
         <v>17060</v>
@@ -52612,13 +52511,13 @@
         <v>42628</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="AH227" s="1" t="s">
         <v>138</v>
@@ -52663,22 +52562,22 @@
         <v>101</v>
       </c>
       <c r="AZ227" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="BB227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD227" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="BH227" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="BI227" s="1" t="s">
         <v>2826</v>
-      </c>
-      <c r="BB227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD227" s="1" t="s">
-        <v>2827</v>
-      </c>
-      <c r="BH227" s="1" t="s">
-        <v>2828</v>
-      </c>
-      <c r="BI227" s="1" t="s">
-        <v>2829</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>117</v>
@@ -52687,7 +52586,7 @@
         <v>106</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>121</v>
@@ -52696,7 +52595,7 @@
         <v>0</v>
       </c>
       <c r="BZ227" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="CA227" s="1" t="s">
         <v>123</v>
@@ -52711,13 +52610,13 @@
         <v>125</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="CG227" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>129</v>
@@ -52731,13 +52630,13 @@
         <v>88</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>101</v>
@@ -52749,22 +52648,22 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="Q228" s="3">
         <v>26864</v>
@@ -52797,7 +52696,7 @@
         <v>42735</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>107</v>
@@ -52851,10 +52750,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>117</v>
@@ -52866,13 +52765,13 @@
         <v>231</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="BS228" s="3">
         <v>102</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>121</v>
@@ -52884,7 +52783,7 @@
         <v>111</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>123</v>
@@ -52893,16 +52792,16 @@
         <v>101</v>
       </c>
       <c r="CC228" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="CD228" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="CE228" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="CG228" s="1" t="s">
         <v>2845</v>
-      </c>
-      <c r="CD228" s="1" t="s">
-        <v>2846</v>
-      </c>
-      <c r="CE228" s="1" t="s">
-        <v>2847</v>
-      </c>
-      <c r="CG228" s="1" t="s">
-        <v>2848</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>129</v>
@@ -52943,16 +52842,16 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="Q229" s="3">
         <v>25379</v>
@@ -52985,7 +52884,7 @@
         <v>39800</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>243</v>
@@ -53039,10 +52938,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>117</v>
@@ -53054,13 +52953,13 @@
         <v>1637</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="BS229" s="3">
         <v>35915</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>121</v>
@@ -53090,10 +52989,10 @@
         <v>437</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="CG229" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>129</v>
@@ -53116,7 +53015,7 @@
         <v>130</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>101</v>
@@ -53128,22 +53027,22 @@
         <v>94</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="Q230" s="3">
         <v>17470</v>
@@ -53173,7 +53072,7 @@
         <v>43100</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>107</v>
@@ -53230,10 +53129,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>117</v>
@@ -53242,7 +53141,7 @@
         <v>106</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>121</v>
@@ -53266,16 +53165,16 @@
         <v>101</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="CG230" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>129</v>
@@ -53298,7 +53197,7 @@
         <v>130</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>101</v>
@@ -53310,22 +53209,22 @@
         <v>94</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="Q231" s="3">
         <v>23356</v>
@@ -53355,7 +53254,7 @@
         <v>43105</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>107</v>
@@ -53409,10 +53308,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>117</v>
@@ -53424,13 +53323,13 @@
         <v>102</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="BS231" s="3">
         <v>34412</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>121</v>
@@ -53439,7 +53338,7 @@
         <v>0</v>
       </c>
       <c r="BZ231" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="CA231" s="1" t="s">
         <v>123</v>
@@ -53448,16 +53347,16 @@
         <v>101</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="CD231" s="1" t="s">
         <v>2279</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>129</v>
@@ -53474,13 +53373,13 @@
         <v>88</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>2384</v>
-      </c>
       <c r="E232" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>92</v>
@@ -53492,22 +53391,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="Q232" s="3">
         <v>17726</v>
@@ -53543,7 +53442,7 @@
         <v>43312</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>243</v>
@@ -53594,7 +53493,7 @@
         <v>101</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="BB232" s="1">
         <v>0</v>
@@ -53603,10 +53502,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>117</v>
@@ -53615,7 +53514,7 @@
         <v>106</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>121</v>
@@ -53624,7 +53523,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>123</v>
@@ -53633,16 +53532,16 @@
         <v>101</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>904</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>129</v>
@@ -53665,7 +53564,7 @@
         <v>130</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -53677,22 +53576,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="Q233" s="3">
         <v>17041</v>
@@ -53722,7 +53621,7 @@
         <v>42735</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>107</v>
@@ -53779,7 +53678,7 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>117</v>
@@ -53788,7 +53687,7 @@
         <v>106</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>121</v>
@@ -53800,7 +53699,7 @@
         <v>111</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>123</v>
@@ -53809,13 +53708,13 @@
         <v>101</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="CG233" s="1" t="s">
         <v>129</v>
@@ -53835,13 +53734,13 @@
         <v>88</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>2384</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>101</v>
@@ -53853,22 +53752,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="Q234" s="3">
         <v>30147</v>
@@ -53894,17 +53793,12 @@
       <c r="AA234" s="1">
         <v>0</v>
       </c>
-      <c r="AC234" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD234" s="1" t="s">
-        <v>2676</v>
-      </c>
+      <c r="AC234" s="3"/>
       <c r="AF234" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>379</v>
@@ -53952,10 +53846,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>117</v>
@@ -53967,13 +53861,13 @@
         <v>102</v>
       </c>
       <c r="BR234" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="BS234" s="3">
         <v>37124</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>121</v>
@@ -53982,7 +53876,7 @@
         <v>0</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>123</v>
@@ -53991,16 +53885,16 @@
         <v>101</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="CD234" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>129</v>
@@ -54041,16 +53935,16 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="Q235" s="3">
         <v>17821</v>
@@ -54089,13 +53983,13 @@
         <v>43388</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>1242</v>
@@ -54140,7 +54034,7 @@
         <v>101</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="BB235" s="1">
         <v>0</v>
@@ -54149,10 +54043,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>117</v>
@@ -54161,7 +54055,7 @@
         <v>106</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>121</v>
@@ -54179,16 +54073,16 @@
         <v>101</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="CD235" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="CE235" s="1" t="s">
         <v>511</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>129</v>
@@ -54229,16 +54123,16 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>100</v>
@@ -54274,7 +54168,7 @@
         <v>43980</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -54331,7 +54225,7 @@
         <v>1832</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>117</v>
@@ -54343,13 +54237,13 @@
         <v>1637</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="BS236" s="3">
         <v>35915</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>121</v>
@@ -54373,7 +54267,7 @@
         <v>437</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="CG236" s="1" t="s">
         <v>1833</v>
@@ -54393,10 +54287,10 @@
         <v>88</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>152</v>
@@ -54411,22 +54305,22 @@
         <v>94</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -54462,7 +54356,7 @@
         <v>44135</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
@@ -54519,10 +54413,10 @@
         <v>20</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>117</v>
@@ -54531,7 +54425,7 @@
         <v>106</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>121</v>
@@ -54540,7 +54434,7 @@
         <v>0</v>
       </c>
       <c r="BZ237" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="CA237" s="1" t="s">
         <v>123</v>
@@ -54552,10 +54446,10 @@
         <v>1265</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="CG237" s="1" t="s">
         <v>1833</v>
@@ -54572,10 +54466,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1240</v>
@@ -54590,7 +54484,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1240</v>
@@ -54599,13 +54493,13 @@
         <v>152</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -54659,7 +54553,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -54692,19 +54586,19 @@
         <v>21</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>121</v>
@@ -54722,16 +54616,16 @@
         <v>101</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>310</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>129</v>
@@ -54745,10 +54639,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1240</v>
@@ -54763,7 +54657,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1240</v>
@@ -54772,13 +54666,13 @@
         <v>152</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -54829,7 +54723,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -54865,19 +54759,19 @@
         <v>21</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>121</v>
@@ -54904,10 +54798,10 @@
         <v>1077</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>129</v>
@@ -54921,10 +54815,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1240</v>
@@ -54939,7 +54833,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1240</v>
@@ -54948,13 +54842,13 @@
         <v>152</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -55005,7 +54899,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55041,19 +54935,19 @@
         <v>21</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>121</v>
@@ -55074,16 +54968,16 @@
         <v>101</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="CD240" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="CG240" s="1" t="s">
         <v>2963</v>
-      </c>
-      <c r="CD240" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="CG240" s="1" t="s">
-        <v>2966</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>129</v>
@@ -55097,10 +54991,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1240</v>
@@ -55115,7 +55009,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1240</v>
@@ -55124,13 +55018,13 @@
         <v>152</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -55217,19 +55111,19 @@
         <v>21</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>121</v>
@@ -55250,7 +55144,7 @@
         <v>101</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="CD241" s="1" t="s">
         <v>606</v>
@@ -55259,7 +55153,7 @@
         <v>511</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>129</v>
@@ -55273,10 +55167,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1240</v>
@@ -55291,7 +55185,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1240</v>
@@ -55300,13 +55194,13 @@
         <v>152</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -55360,7 +55254,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -55396,19 +55290,19 @@
         <v>21</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>121</v>
@@ -55432,13 +55326,13 @@
         <v>495</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>129</v>
@@ -55452,10 +55346,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1240</v>
@@ -55470,7 +55364,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1240</v>
@@ -55479,13 +55373,13 @@
         <v>152</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -55572,19 +55466,19 @@
         <v>21</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>121</v>
@@ -55605,16 +55499,16 @@
         <v>101</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>620</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>129</v>
@@ -55628,10 +55522,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1240</v>
@@ -55646,7 +55540,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1240</v>
@@ -55655,13 +55549,13 @@
         <v>152</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -55697,7 +55591,7 @@
         <v>107</v>
       </c>
       <c r="AG244" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="AH244" s="1" t="s">
         <v>1242</v>
@@ -55715,7 +55609,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -55751,19 +55645,19 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="BG244" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>121</v>
@@ -55784,16 +55678,16 @@
         <v>101</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>1007</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>129</v>
@@ -55807,10 +55701,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1240</v>
@@ -55825,7 +55719,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1240</v>
@@ -55834,13 +55728,13 @@
         <v>152</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55894,7 +55788,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -55930,19 +55824,19 @@
         <v>21</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>121</v>
@@ -55966,13 +55860,13 @@
         <v>993</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>129</v>
@@ -55986,10 +55880,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1240</v>
@@ -56004,7 +55898,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1240</v>
@@ -56013,13 +55907,13 @@
         <v>152</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56073,7 +55967,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -56109,19 +56003,19 @@
         <v>21</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>121</v>
@@ -56148,10 +56042,10 @@
         <v>2117</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>129</v>
@@ -56165,10 +56059,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1240</v>
@@ -56183,7 +56077,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1240</v>
@@ -56192,13 +56086,13 @@
         <v>152</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2220</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -56234,7 +56128,7 @@
         <v>107</v>
       </c>
       <c r="AG247" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="AH247" s="1" t="s">
         <v>1242</v>
@@ -56249,7 +56143,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56282,19 +56176,19 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>121</v>
@@ -56312,16 +56206,16 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3028</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3029</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3030</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3031</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>129</v>
@@ -56335,10 +56229,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1240</v>
@@ -56353,7 +56247,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1240</v>
@@ -56362,13 +56256,13 @@
         <v>152</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>2228</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -56452,19 +56346,19 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>121</v>
@@ -56485,16 +56379,16 @@
         <v>2159</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="CG248" s="1" t="s">
         <v>3037</v>
-      </c>
-      <c r="CD248" s="1" t="s">
-        <v>3038</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3039</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>3040</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>129</v>
@@ -56508,10 +56402,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1240</v>
@@ -56526,7 +56420,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1240</v>
@@ -56535,13 +56429,13 @@
         <v>152</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -56625,19 +56519,19 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>121</v>
@@ -56658,13 +56552,13 @@
         <v>1185</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>129</v>
@@ -56678,10 +56572,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1240</v>
@@ -56696,7 +56590,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1240</v>
@@ -56705,13 +56599,13 @@
         <v>152</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -56762,7 +56656,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -56798,19 +56692,19 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>121</v>
@@ -56831,16 +56725,16 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>129</v>
@@ -56854,10 +56748,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1240</v>
@@ -56872,7 +56766,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1240</v>
@@ -56881,13 +56775,13 @@
         <v>152</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -56941,7 +56835,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -56977,19 +56871,19 @@
         <v>21</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>121</v>
@@ -57010,16 +56904,16 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3066</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3067</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3068</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3069</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>129</v>
@@ -57033,10 +56927,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1240</v>
@@ -57051,7 +56945,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1240</v>
@@ -57060,13 +56954,13 @@
         <v>152</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -57120,7 +57014,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57156,19 +57050,19 @@
         <v>21</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>121</v>
@@ -57189,16 +57083,16 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3076</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3077</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3078</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3079</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>129</v>
@@ -57212,10 +57106,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1240</v>
@@ -57230,7 +57124,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1240</v>
@@ -57239,13 +57133,13 @@
         <v>152</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -57338,7 +57232,7 @@
         <v>21</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>114</v>
@@ -57365,10 +57259,10 @@
         <v>101</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>219</v>
@@ -57388,10 +57282,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1240</v>
@@ -57406,7 +57300,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1240</v>
@@ -57415,13 +57309,13 @@
         <v>152</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -57475,7 +57369,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -57511,25 +57405,25 @@
         <v>21</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>121</v>
       </c>
       <c r="BW254" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BX254" s="1">
         <v>0</v>
@@ -57547,16 +57441,16 @@
         <v>101</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>129</v>
@@ -57570,10 +57464,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1240</v>
@@ -57588,7 +57482,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1240</v>
@@ -57597,13 +57491,13 @@
         <v>152</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -57654,7 +57548,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -57690,19 +57584,19 @@
         <v>21</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>121</v>
@@ -57723,16 +57617,16 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>129</v>
@@ -57746,10 +57640,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1240</v>
@@ -57764,7 +57658,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1240</v>
@@ -57773,13 +57667,13 @@
         <v>152</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -57809,7 +57703,7 @@
         <v>107</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>379</v>
@@ -57824,7 +57718,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -57854,19 +57748,19 @@
         <v>21</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>121</v>
@@ -57884,16 +57778,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>310</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>129</v>
@@ -57907,10 +57801,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1240</v>
@@ -57925,7 +57819,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1240</v>
@@ -57934,13 +57828,13 @@
         <v>152</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -58024,19 +57918,19 @@
         <v>21</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>121</v>
@@ -58054,16 +57948,16 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3121</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3122</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3123</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3124</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>129</v>
@@ -58077,10 +57971,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1240</v>
@@ -58095,7 +57989,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1240</v>
@@ -58104,13 +57998,13 @@
         <v>152</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -58197,19 +58091,19 @@
         <v>21</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>121</v>
@@ -58227,16 +58121,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3131</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3132</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3133</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3134</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>129</v>
@@ -58250,10 +58144,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1240</v>
@@ -58268,7 +58162,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1240</v>
@@ -58277,13 +58171,13 @@
         <v>152</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -58292,7 +58186,7 @@
         <v>101</v>
       </c>
       <c r="Q259" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="R259" s="1" t="s">
         <v>136</v>
@@ -58334,7 +58228,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -58367,19 +58261,19 @@
         <v>21</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>121</v>
@@ -58397,16 +58291,16 @@
         <v>101</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3142</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3143</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3144</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3145</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>129</v>
@@ -58447,16 +58341,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="M260" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -58546,13 +58440,13 @@
         <v>21</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>117</v>
@@ -58561,7 +58455,7 @@
         <v>106</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>121</v>
@@ -58591,10 +58485,10 @@
         <v>1233</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>129</v>
@@ -58635,13 +58529,13 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
@@ -58731,13 +58625,13 @@
         <v>21</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>117</v>
@@ -58749,13 +58643,13 @@
         <v>165</v>
       </c>
       <c r="BR261" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BS261" s="3">
         <v>5347</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>121</v>
@@ -58779,16 +58673,16 @@
         <v>101</v>
       </c>
       <c r="CC261" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="CD261" s="1" t="s">
         <v>464</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>129</v>
@@ -58805,10 +58699,10 @@
         <v>88</v>
       </c>
       <c r="C262" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>152</v>
@@ -58823,19 +58717,19 @@
         <v>94</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
@@ -58922,13 +58816,13 @@
         <v>21</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>117</v>
@@ -58937,13 +58831,13 @@
         <v>231</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BS262" s="3">
         <v>5480</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>121</v>
@@ -58958,7 +58852,7 @@
         <v>111</v>
       </c>
       <c r="BZ262" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="CA262" s="1" t="s">
         <v>123</v>
@@ -58970,13 +58864,13 @@
         <v>479</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>129</v>
@@ -59017,13 +58911,13 @@
         <v>96</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
@@ -59062,10 +58956,10 @@
         <v>107</v>
       </c>
       <c r="AG263" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="AH263" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="AJ263" s="1" t="s">
         <v>110</v>
@@ -59113,16 +59007,16 @@
         <v>21</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="BI263" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>117</v>
@@ -59131,13 +59025,13 @@
         <v>231</v>
       </c>
       <c r="BR263" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BS263" s="3">
         <v>2302</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>121</v>
@@ -59161,19 +59055,19 @@
         <v>92</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="CG263" s="1" t="s">
         <v>3183</v>
       </c>
-      <c r="CD263" s="1" t="s">
+      <c r="CH263" s="1" t="s">
         <v>3184</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3185</v>
-      </c>
-      <c r="CG263" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="CH263" s="1" t="s">
-        <v>3187</v>
       </c>
       <c r="CI263" s="1" t="s">
         <v>129</v>
@@ -59211,13 +59105,13 @@
         <v>96</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
@@ -59256,10 +59150,10 @@
         <v>107</v>
       </c>
       <c r="AG264" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="AH264" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="AI264" s="1" t="s">
         <v>101</v>
@@ -59310,19 +59204,19 @@
         <v>21</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>121</v>
@@ -59346,16 +59240,16 @@
         <v>92</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>129</v>
@@ -59396,16 +59290,16 @@
         <v>96</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
@@ -59441,13 +59335,13 @@
         <v>43847</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG265" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="AH265" s="1" t="s">
         <v>1914</v>
@@ -59492,7 +59386,7 @@
         <v>101</v>
       </c>
       <c r="AZ265" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BB265" s="1">
         <v>2</v>
@@ -59501,10 +59395,10 @@
         <v>21</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>117</v>
@@ -59516,13 +59410,13 @@
         <v>118</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="BS265" s="3">
         <v>34808</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>121</v>
@@ -59540,13 +59434,13 @@
         <v>101</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="CG265" s="1" t="s">
         <v>1833</v>
@@ -59563,10 +59457,10 @@
         <v>87</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1240</v>
@@ -59590,13 +59484,13 @@
         <v>152</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
@@ -59653,7 +59547,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="AO266" s="1">
         <v>0</v>
@@ -59683,7 +59577,7 @@
         <v>101</v>
       </c>
       <c r="AZ266" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="BB266" s="1">
         <v>2</v>
@@ -59692,7 +59586,7 @@
         <v>21</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="BG266" s="1" t="s">
         <v>114</v>
@@ -59701,7 +59595,7 @@
         <v>117</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>121</v>
@@ -59719,13 +59613,13 @@
         <v>101</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="CG266" s="1" t="s">
         <v>129</v>
@@ -59738,6 +59632,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI266" xr:uid="{1749E211-65D6-41AC-943B-3C0190BE2ED3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>